--- a/Civilmart/14667897/zres_siteapp_NEW.xlsx
+++ b/Civilmart/14667897/zres_siteapp_NEW.xlsx
@@ -1,26 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Civilmart\14667897\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7F9BBF-5727-4518-952D-1A40DA7B2B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DFA43E-57EF-4E3F-A5C6-C2ECE527D63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="330" windowWidth="28890" windowHeight="19710" xr2:uid="{484357A6-E8EE-4CFD-B5D3-FC42F38F2F05}"/>
+    <workbookView xWindow="9210" yWindow="990" windowWidth="28905" windowHeight="20010" xr2:uid="{484357A6-E8EE-4CFD-B5D3-FC42F38F2F05}"/>
   </bookViews>
   <sheets>
     <sheet name="zres_siteapp_NEW" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">zres_siteapp_NEW!$A$1:$K$215</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="265">
   <si>
     <t>Id</t>
   </si>
@@ -41,13 +57,787 @@
   </si>
   <si>
     <t>Postfix</t>
+  </si>
+  <si>
+    <t>952573a6-db98-454c-a564-b6c29f5e9f50</t>
+  </si>
+  <si>
+    <t>checklist</t>
+  </si>
+  <si>
+    <t>QA - 001 - Cement Records V1</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>QA - 001 - Cement Records</t>
+  </si>
+  <si>
+    <t>7c7b2d6b-98e8-468f-bf77-499699d3f691</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>Cement Records</t>
+  </si>
+  <si>
+    <t>729d5db7-2e22-4405-8340-8beb2f67fb48</t>
+  </si>
+  <si>
+    <t>checkpoint-no-value</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>f734497e-0776-5752-b89f-d83d1b7408fb</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>QUARTER ENDING:</t>
+  </si>
+  <si>
+    <t>6f055d20-7d89-52b4-94de-988530b2d182</t>
+  </si>
+  <si>
+    <t>tickbox</t>
+  </si>
+  <si>
+    <t>Or, new supplier or new type</t>
+  </si>
+  <si>
+    <t>c05ae3b9-894b-55ac-922b-f2d2813a6ed0</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>90dd9c50-f6d5-5bea-942a-151a77670bd2</t>
+  </si>
+  <si>
+    <t>textbox</t>
+  </si>
+  <si>
+    <t>SUPPLIER</t>
+  </si>
+  <si>
+    <t>55b907a8-227f-5c09-8a13-bbbe098ef275</t>
+  </si>
+  <si>
+    <t>DOCKET No.</t>
+  </si>
+  <si>
+    <t>0a21d3e1-6d44-51ee-bfb1-04dcd406ed9f</t>
+  </si>
+  <si>
+    <t>CERTIFICATE No.</t>
+  </si>
+  <si>
+    <t>9d3dd8de-3506-5cf1-b6b8-e5fd4ceda689</t>
+  </si>
+  <si>
+    <t>CEMENT TYPE</t>
+  </si>
+  <si>
+    <t>a36722d7-0eaa-41a4-aa63-c0eb4ba8f216</t>
+  </si>
+  <si>
+    <t>checkpoint</t>
+  </si>
+  <si>
+    <t>Properties meet AS3972</t>
+  </si>
+  <si>
+    <t>2ab9799b-54c8-4f46-97c1-a427b5cdaff5</t>
+  </si>
+  <si>
+    <t>Cement meets Civilmart Poles Spec.</t>
+  </si>
+  <si>
+    <t>7f96aa46-6c65-4a6f-96db-a825017125c0</t>
+  </si>
+  <si>
+    <t>QA - 002 - Fly Ash and Admixtures Record V1</t>
+  </si>
+  <si>
+    <t>QA - 002 - Fly Ash and Admixtures Record</t>
+  </si>
+  <si>
+    <t>593bdd89-9963-4604-94a2-94815c22053d</t>
+  </si>
+  <si>
+    <t>Fly Ash and Admixtures Record</t>
+  </si>
+  <si>
+    <t>68cb878e-9a71-4641-8ebc-e17fc3fe5cf1</t>
+  </si>
+  <si>
+    <t>98cab6b8-14d1-5f23-8a0b-f22f8b1c5fcb</t>
+  </si>
+  <si>
+    <t>ad195689-c612-59f8-9494-f7c1a4c00bcc</t>
+  </si>
+  <si>
+    <t>75f4bd75-3319-521c-aff5-6bed3c665c75</t>
+  </si>
+  <si>
+    <t>Review / approval from Engineering Department</t>
+  </si>
+  <si>
+    <t>453e3c45-35d7-4a2a-b2b3-b35c994d1609</t>
+  </si>
+  <si>
+    <t>PART 1 - FLY ASH</t>
+  </si>
+  <si>
+    <t>452f21c1-f41a-4829-85cd-38f700444d9b</t>
+  </si>
+  <si>
+    <t>1501db86-a1fa-5124-a8c8-417338207b60</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>Civilmart Poles Minimum Acceptable Specification:</t>
+  </si>
+  <si>
+    <t>34a455ce-601b-5bc1-a282-c2660de8e83b</t>
+  </si>
+  <si>
+    <t>Moisture 1% max, &gt;75% passing 45μm sieve, loss on ignition &lt;4%</t>
+  </si>
+  <si>
+    <t>fd9ea64b-957b-5f31-9ec9-7265067ad861</t>
+  </si>
+  <si>
+    <t>Density and available alkali must be reported</t>
+  </si>
+  <si>
+    <t>a26c9a07-2a1e-5756-b3c2-23379c7178f8</t>
+  </si>
+  <si>
+    <t>i.e. apart from these Civilmart Poles requirements, all other properties must meet AS 3582.1 Grade "Fine" (refer to fly ash certificate)</t>
+  </si>
+  <si>
+    <t>3f881ef3-2238-585b-8b53-b630ac52da42</t>
+  </si>
+  <si>
+    <t>589442b2-82b4-5c4f-8109-921b5d9abb16</t>
+  </si>
+  <si>
+    <t>3a90779e-4f37-553e-a5f1-29109a2c230b</t>
+  </si>
+  <si>
+    <t>e6d61c05-a98f-52e0-b167-bfc02e9a817a</t>
+  </si>
+  <si>
+    <t>51753b7c-b318-5eb0-9cb3-83688fa58a10</t>
+  </si>
+  <si>
+    <t>FLY ASH TYPE</t>
+  </si>
+  <si>
+    <t>5459f5ef-2b9d-4291-b107-666565113b90</t>
+  </si>
+  <si>
+    <t>Remaining properties meet AS3582.1</t>
+  </si>
+  <si>
+    <t>8fda78bf-fa2e-4878-aa6c-99731038f914</t>
+  </si>
+  <si>
+    <t>Meets Civilmart Poles Spec.</t>
+  </si>
+  <si>
+    <t>1daaec9d-a9ee-4260-b210-c4214b3fb90b</t>
+  </si>
+  <si>
+    <t>PART 2 - ADMIXTURES</t>
+  </si>
+  <si>
+    <t>4eafc774-32ed-42fa-8440-22c9f150ac92</t>
+  </si>
+  <si>
+    <t>901f3faf-e0e2-59db-a008-b49f9ae5f9b5</t>
+  </si>
+  <si>
+    <t>Certificate of Analysis (CoA) to be obtain to provide records for investigative/comparison purposes. Refer to ITP for required frequency.</t>
+  </si>
+  <si>
+    <t>a80215e2-0cb5-597b-a708-fb1e0f08c03c</t>
+  </si>
+  <si>
+    <t>619053d0-12c7-58b0-b9fc-a739ad8920f1</t>
+  </si>
+  <si>
+    <t>3fe35740-7ffd-55c9-8cc3-1fe469e55b3b</t>
+  </si>
+  <si>
+    <t>d4696dce-970f-5e1f-b249-e532ab72ce92</t>
+  </si>
+  <si>
+    <t>e180b7e6-4694-5290-a0aa-82f30abe793a</t>
+  </si>
+  <si>
+    <t>ADMIXTURE TYPE</t>
+  </si>
+  <si>
+    <t>2418440b-19ab-5b8c-ac50-f2ee925a356b</t>
+  </si>
+  <si>
+    <t>BRAND NAME</t>
+  </si>
+  <si>
+    <t>ae8a9049-ab04-468d-bfd2-6e5f2eaba12c</t>
+  </si>
+  <si>
+    <t>QA - 003 - Aggregates Visual Inspection V1</t>
+  </si>
+  <si>
+    <t>QA - 003 - Aggregates Visual Inspection</t>
+  </si>
+  <si>
+    <t>deda7b58-f1fe-4d4f-9213-b3d6102d8f16</t>
+  </si>
+  <si>
+    <t>Aggregates Visual Inspection</t>
+  </si>
+  <si>
+    <t>b42fa1da-6da7-49ad-9e4e-e76938046445</t>
+  </si>
+  <si>
+    <t>cc9d727d-15a3-5a88-8512-8ebc4fc370ca</t>
+  </si>
+  <si>
+    <t>7fdca3b1-b291-5b53-991f-ee1ee8577e7d</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>ce8a436d-3977-599c-915f-0128770a7252</t>
+  </si>
+  <si>
+    <t>fa4fcea2-a445-515f-b693-557a49a3233a</t>
+  </si>
+  <si>
+    <t>AGG. SIZE</t>
+  </si>
+  <si>
+    <t>VISUAL: SHAPE</t>
+  </si>
+  <si>
+    <t>VISUAL: FOREIGN MATTER</t>
+  </si>
+  <si>
+    <t>526a2106-16f8-47f1-9036-2a98cb4c2018</t>
+  </si>
+  <si>
+    <t>FIRE ANTS CHECK</t>
+  </si>
+  <si>
+    <t>72e2e387-9c34-414d-a825-efb287d0e3a6</t>
+  </si>
+  <si>
+    <t>QA - 007 - Reinforcement Inspection V3</t>
+  </si>
+  <si>
+    <t>QA - 007 - Reinforcement Inspection</t>
+  </si>
+  <si>
+    <t>c9f353c1-8c5c-48ee-a6ae-912544dfcebf</t>
+  </si>
+  <si>
+    <t>02a747b2-cae7-4852-95f1-26b8533c1f96</t>
+  </si>
+  <si>
+    <t>e2d46c35-d335-551a-a921-cb79db216756</t>
+  </si>
+  <si>
+    <t>Coil/Batch No.</t>
+  </si>
+  <si>
+    <t>f71de0df-dc9b-519e-8f8f-6474513557e0</t>
+  </si>
+  <si>
+    <t>DATE: Delivered</t>
+  </si>
+  <si>
+    <t>fcb3a7b3-29ac-54ce-a897-36fe5795af84</t>
+  </si>
+  <si>
+    <t>DATE: Inspected or Tested</t>
+  </si>
+  <si>
+    <t>Visual inspections: Dimensions</t>
+  </si>
+  <si>
+    <t>Visual inspections: Rust</t>
+  </si>
+  <si>
+    <t>Visual inspections: Surface oil</t>
+  </si>
+  <si>
+    <t>7dc538d9-087c-5933-abd5-5df9cffbd3f5</t>
+  </si>
+  <si>
+    <t>button</t>
+  </si>
+  <si>
+    <t>Compliant with specified on site mass limits?</t>
+  </si>
+  <si>
+    <t>Yes,No</t>
+  </si>
+  <si>
+    <t>721b5495-8500-4c93-a675-93d07fa38110</t>
+  </si>
+  <si>
+    <t>QA - 008 - Fabricated Reinforcement Inspection V1</t>
+  </si>
+  <si>
+    <t>QA - 008 - Fabricated Reinforcement Inspection</t>
+  </si>
+  <si>
+    <t>5a21347d-cd45-4b06-be08-8d57d7261442</t>
+  </si>
+  <si>
+    <t>Fabricated Reinforcement Inspection</t>
+  </si>
+  <si>
+    <t>0ede2eb3-9945-483a-9a35-461f658f48d3</t>
+  </si>
+  <si>
+    <t>57744ff4-0122-5899-abc9-e9645577f8f6</t>
+  </si>
+  <si>
+    <t>0c737b63-1783-59c4-8f40-d127d59bcfdb</t>
+  </si>
+  <si>
+    <t>Supplier QEC</t>
+  </si>
+  <si>
+    <t>948f6b86-205c-52b8-ba3c-9222b3b523f2</t>
+  </si>
+  <si>
+    <t>DELIVERY DETAILS</t>
+  </si>
+  <si>
+    <t>ae6e1964-27e9-5516-8162-577e5e4a5945</t>
+  </si>
+  <si>
+    <t>Date Received</t>
+  </si>
+  <si>
+    <t>69f88f9c-cbb2-5032-865d-c15c839f6b86</t>
+  </si>
+  <si>
+    <t>Quantity Received</t>
+  </si>
+  <si>
+    <t>d6c01785-0665-5451-87a9-93d66bbc6554</t>
+  </si>
+  <si>
+    <t>Sample Size</t>
+  </si>
+  <si>
+    <t>e265a04e-44d2-5c58-a4b7-61f93830a99b</t>
+  </si>
+  <si>
+    <t>RELEVANT DRAWING OR SPECIFICATION (or sample)</t>
+  </si>
+  <si>
+    <t>640b5e42-d654-43ef-b2d6-7b0dc78b5704</t>
+  </si>
+  <si>
+    <t>QA - 009 - Fittings Inspection V1</t>
+  </si>
+  <si>
+    <t>QA - 009 - Fittings Inspection</t>
+  </si>
+  <si>
+    <t>4283c580-b43f-42b4-985d-47cecc69a0a7</t>
+  </si>
+  <si>
+    <t>Fittings Inspection</t>
+  </si>
+  <si>
+    <t>8c0b3e2c-5a46-47b6-8bd8-4e6cfda076fd</t>
+  </si>
+  <si>
+    <t>9ba5127a-6ec8-5bad-b023-6fddfdf2a53b</t>
+  </si>
+  <si>
+    <t>e4373743-ad0c-57f3-b4dd-e076fced9cfc</t>
+  </si>
+  <si>
+    <t>09a05859-555a-5571-9fef-ba90ce7553df</t>
+  </si>
+  <si>
+    <t>12dd4c80-6d2f-537a-9a2f-385e3a1e468f</t>
+  </si>
+  <si>
+    <t>66dfa29b-cee1-51aa-b243-964e9422ab02</t>
+  </si>
+  <si>
+    <t>795baee1-cd2e-57b6-a93a-ca274b414532</t>
+  </si>
+  <si>
+    <t>0a4538ff-41fc-5209-bf03-39f2a39a9026</t>
+  </si>
+  <si>
+    <t>c7061147-b18c-45f0-beed-98f6805f93b9</t>
+  </si>
+  <si>
+    <t>QA - 028 - Load Visual Inspection V1</t>
+  </si>
+  <si>
+    <t>QA - 028 - Load Visual Inspection</t>
+  </si>
+  <si>
+    <t>1d0d6bcd-16b8-49bb-82ae-b68ba2fc9d82</t>
+  </si>
+  <si>
+    <t>Load Visual Inspection</t>
+  </si>
+  <si>
+    <t>d1930446-13bb-421a-946e-9e3a07238aaa</t>
+  </si>
+  <si>
+    <t>Load</t>
+  </si>
+  <si>
+    <t>14ef1ee3-3457-5715-854f-d7e8d0230743</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>233a77c9-4c5b-5a03-987f-f337b4a64bbc</t>
+  </si>
+  <si>
+    <t>Carrier</t>
+  </si>
+  <si>
+    <t>ff39f8ad-d7d0-5f25-8511-f01c25bf040e</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>e35da9cc-c366-5cb6-99b2-49b1b06e4111</t>
+  </si>
+  <si>
+    <t>Loading Docket No.</t>
+  </si>
+  <si>
+    <t>0c330066-5977-5a9b-b715-46cf76daae83</t>
+  </si>
+  <si>
+    <t>Loaded by (Loader &amp; Dogman Initials)</t>
+  </si>
+  <si>
+    <t>2ecb94b0-9791-42d5-b2dd-0fc7e3ca7cf7</t>
+  </si>
+  <si>
+    <t>Fire Ants Check (QLD only)</t>
+  </si>
+  <si>
+    <t>Procedure</t>
+  </si>
+  <si>
+    <t>Minimum Frequency - QUARTERLY / TYPE / SUPPLIER.</t>
+  </si>
+  <si>
+    <t>1. Retain a manufacturer's test certificate for each Type per Supplier per Quarter.</t>
+  </si>
+  <si>
+    <t>2. Record details and compare to minimum acceptable specifications.</t>
+  </si>
+  <si>
+    <t>Note: This form shall also be completed for a new supplier or new type prior to or upon delivery.</t>
+  </si>
+  <si>
+    <t>If non-conforming do the following:</t>
+  </si>
+  <si>
+    <t>a. Advise the designated quality coordinator of non-conformance and provide them with a copy of this form. – NCR shall be raised.</t>
+  </si>
+  <si>
+    <t>b. Identify unused cement on site, reject if outside minimum specification.</t>
+  </si>
+  <si>
+    <t>c. Notify supplier of non-conformance.</t>
+  </si>
+  <si>
+    <t>d. Examine test performance of completed products/cylinders to identify potential production defects.</t>
+  </si>
+  <si>
+    <t>All cements shall comply with the relevant clauses of AS3972 table 1, except that:</t>
+  </si>
+  <si>
+    <t>b. The following restrictions shall apply:</t>
+  </si>
+  <si>
+    <t>Particular cements which do not comply with these latter requirements can be used but only after gaining written approval from the Regional/Area or Manufacturing Manager.</t>
+  </si>
+  <si>
+    <t>Certain products, contracts or processes may require individual specifications.</t>
+  </si>
+  <si>
+    <t>* Minimum fineness indices should be agreed with individual suppliers during contract negotiations but should not be less than these values.</t>
+  </si>
+  <si>
+    <t>** It is recommended that the clinker or OPC used to make the blend have a C3S as indicated for GB. Ideally the blend should contain at least 75% by mass of OPC.</t>
+  </si>
+  <si>
+    <t>Poles Cement Specification</t>
+  </si>
+  <si>
+    <t>a. All types (except GB) shall contain no mineral additions without prior written agreement from Civilmart Poles.</t>
+  </si>
+  <si>
+    <t>TYPE || **C3S content || Fineness Index * || Initial Set - Hrs. || Total Alkali NA20 equivalent || SO3 content || C3A (informative)</t>
+  </si>
+  <si>
+    <t>GP || &gt; 55% ||  350 || &lt; 2.5 || &lt; 0.8% || &lt; 3.0 % || Record Result to 0.1%</t>
+  </si>
+  <si>
+    <t>GB || ≥ 55% || Max.15% on 45m sieve || &lt; 3.0 || &lt; 0.8% || &lt; 3.0 % || Record Result to 0.1%</t>
+  </si>
+  <si>
+    <t>HE || ≥ 50% || &gt; 380 || &lt; 2.5 || &lt; 0.8% || &lt; 3.0 % || Record Result to 0.1%</t>
+  </si>
+  <si>
+    <t>SR || &gt; 55% || &gt; 330 || &lt; 3.0 || &lt; 0.8% || &lt; 3.0 % || Record Result to 0.1%</t>
+  </si>
+  <si>
+    <t>— — — — — — — — — — — — —</t>
+  </si>
+  <si>
+    <t>a. Advise the designated quality coordinator of non-conformance and provide them with a copy of this form.</t>
+  </si>
+  <si>
+    <t>b. Identify unused fly ash/admixture on site, reject if outside minimum specification.</t>
+  </si>
+  <si>
+    <t>C,MV,SD</t>
+  </si>
+  <si>
+    <t>Minimum Frequency - QEC - none except new supplier</t>
+  </si>
+  <si>
+    <t>Non-QEC - 1 Delivery / Week / Type / Supplier OR Where non-conformance is found from daily check.</t>
+  </si>
+  <si>
+    <t>1. Visually inspect all aggregates.</t>
+  </si>
+  <si>
+    <t>2. Maintain an agreed reference sample (from initial supply) for comparison with supplied aggregates.</t>
+  </si>
+  <si>
+    <t>3. Record visual inspection details as follows:</t>
+  </si>
+  <si>
+    <t>C = Conforming. MV = Minor Variation. SD = Serious Deficiency</t>
+  </si>
+  <si>
+    <t>4. Initial the ‘INSPECTED BY’ box.</t>
+  </si>
+  <si>
+    <t>Note: Fire ants check applicable in Queensland only.</t>
+  </si>
+  <si>
+    <t>a. Advise the designated quality coordinator of non-conformance and provide them with a copy of this form – NCR shall be raised.</t>
+  </si>
+  <si>
+    <t>b. If either visual inspection is SD isolate material (flag) and remove - investigate with supplier, then closely monitor supplies untilresolved, or</t>
+  </si>
+  <si>
+    <t>c. If either visual inspection is MV consult with supplier, do additional testing to check degree of variation.</t>
+  </si>
+  <si>
+    <t>REINFORCEMENT INSPECTION</t>
+  </si>
+  <si>
+    <t>Minimum Frequency - EACH DELIVERY</t>
+  </si>
+  <si>
+    <t>1. Check 1 in 50 (min 1 per type, per delivery) or 1 in 200 (min 1 per type, per delivery) if supplier is a Quality Endorsed Company.</t>
+  </si>
+  <si>
+    <t>2. Visually inspect wire and record details below as follows</t>
+  </si>
+  <si>
+    <t>C = Conforming MD = Minor Deficiency SD = Serious Deficiency</t>
+  </si>
+  <si>
+    <t>4. Inspect all reinforcement in the delivery to ensure it is compliant with specified on site mass limits</t>
+  </si>
+  <si>
+    <t>(i.e., Wodonga mass limit = 1900kg) and record details below as follows C = Conforming NC = Non-conforming.</t>
+  </si>
+  <si>
+    <t>5. Initial PASS or FAIL box, THEN:</t>
+  </si>
+  <si>
+    <t>Minimum Frequency - ANUALLY</t>
+  </si>
+  <si>
+    <t>6. Obtain 3 of NATA Test Certificates from Manufacturers indicating breaking stress values for Annual UTS results. Average results and record</t>
+  </si>
+  <si>
+    <t>a. If visual inspection has SD or continuing MD then:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> — Advise the designated quality coordinator of non-conformance and provide them with a copy of this form. – NCR shall be raised.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> — Quarantine coil and follow up with supplier.</t>
+  </si>
+  <si>
+    <t>b. If mass limit is NC then:</t>
+  </si>
+  <si>
+    <t>c. If UTS result outside AS4671-2019 or AS4672-2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> — Reject further coils and follow up with supplier.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> — Follow up on representative final product testing.</t>
+  </si>
+  <si>
+    <t>Reinforcement Size</t>
+  </si>
+  <si>
+    <t>dropdown</t>
+  </si>
+  <si>
+    <t>5.55,7.02,9.88,12.33,15FWB,20FWB,N20,N24,12.7 STRAND,9.5 STRAND</t>
+  </si>
+  <si>
+    <t>Delivery Docket No.</t>
+  </si>
+  <si>
+    <t>C,MD,SD</t>
+  </si>
+  <si>
+    <t>CONFORMING,NON-CONFORMING</t>
+  </si>
+  <si>
+    <t>1. Review delivery docket to confirm quantity and other specific information.</t>
+  </si>
+  <si>
+    <t>2. Check each delivery conforms to the relevant drawing or specific requirements including relevant AS (i.e., AS 4671, AS 3679, AS 4291 etc).</t>
+  </si>
+  <si>
+    <t>3. Check at rate of 1 in 50 (min 2 per type, per delivery) or 1 in 200 (min 1 per type, per delivery) if supplier is a Quality Endorsed Company.</t>
+  </si>
+  <si>
+    <t>4. Check all critical dimensions and features as specified. (Visual comparison to existing sample is recommended).</t>
+  </si>
+  <si>
+    <t>b. Check a further 2 items (in the sample size).</t>
+  </si>
+  <si>
+    <t>c. If any of these samples do not conform reject the delivery - or test 100% and accept all satisfactory items.</t>
+  </si>
+  <si>
+    <t>d. Isolate and identify all defective reinforcing or batches of reinforcing.</t>
+  </si>
+  <si>
+    <t>ITEM DESCRIPTION</t>
+  </si>
+  <si>
+    <t>1. Check fittings: Mass produced (extruded, cast, machine fabricated) at the rate of 2 per container of same items, or if the supplier is a Quality Endorsed Company (QEC) as recorded on the approved suppliers list, a minimum inspection of 2 items per delivery.</t>
+  </si>
+  <si>
+    <t>2. Note whether the supplier is a Quality Endorsed Company.</t>
+  </si>
+  <si>
+    <t>3. Check all critical dimensions and features as specified. (Visual comparison to existing sample is recommended)</t>
+  </si>
+  <si>
+    <t>d. Isolate and identify all defective fittings or batches of fittings.</t>
+  </si>
+  <si>
+    <t>Minimum Frequency - 1(i) LOAD / WEEK</t>
+  </si>
+  <si>
+    <t>1. Observe the loading of product to ensure compliance with established procedures and relevant Work Instructions.</t>
+  </si>
+  <si>
+    <t>2. Observe load for product damage (compared with conveniently located, correctly branded product sample of customer / specification)</t>
+  </si>
+  <si>
+    <t>3. Check load for all items against the details on the loading slip. Confirm that correct products and quantity are present.</t>
+  </si>
+  <si>
+    <t>4. Confirm Quality Checks &amp; Chain of Responsibility Checks (CoR) are completed by the loader.</t>
+  </si>
+  <si>
+    <t>5. Record all observations.</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>(i) Increased frequency may be required where high output occurs or non-conformance has occurred.</t>
+  </si>
+  <si>
+    <t>(ii) Fire Ants check applicable in Queensland only.</t>
+  </si>
+  <si>
+    <t>(iii) Deviation from established procedure is regarded as non-conformance.</t>
+  </si>
+  <si>
+    <t>Observation:</t>
+  </si>
+  <si>
+    <t>Exclusion zone established?</t>
+  </si>
+  <si>
+    <t>Platform ladders in place and used?</t>
+  </si>
+  <si>
+    <t>Work crew wearing all required PPE?</t>
+  </si>
+  <si>
+    <t>Lifting equipment positively attached?</t>
+  </si>
+  <si>
+    <t>Tagline used at all times?</t>
+  </si>
+  <si>
+    <t>Lifting and shifting completed as per SOP?</t>
+  </si>
+  <si>
+    <t>Any unsafe practices or deviations observed?</t>
+  </si>
+  <si>
+    <t>Quality Checks completed by the loader?</t>
+  </si>
+  <si>
+    <t>Chain of Responsibility Checks (CoR) completed?</t>
+  </si>
+  <si>
+    <t>Any product damage identified?</t>
+  </si>
+  <si>
+    <t>Products, items, and quantity, correct?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,8 +972,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="6"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -363,6 +1163,36 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -524,8 +1354,22 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -901,18 +1745,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC82424-48FB-42A9-BBD7-D5F7213BFFEF}">
-  <dimension ref="A1:G1"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:K215"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C184"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="159" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.85546875" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="160.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -938,7 +1786,2147 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="K26" s="11"/>
+    </row>
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="K27" s="11"/>
+    </row>
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" t="s">
+        <v>27</v>
+      </c>
+      <c r="C61" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" t="s">
+        <v>27</v>
+      </c>
+      <c r="C63" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" t="s">
+        <v>54</v>
+      </c>
+      <c r="C72" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74" t="s">
+        <v>27</v>
+      </c>
+      <c r="C74" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75" t="s">
+        <v>27</v>
+      </c>
+      <c r="C75" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" t="s">
+        <v>27</v>
+      </c>
+      <c r="C76" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77" t="s">
+        <v>27</v>
+      </c>
+      <c r="C77" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78" t="s">
+        <v>27</v>
+      </c>
+      <c r="C78" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+    </row>
+    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+      <c r="B84" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+      <c r="B85" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+      <c r="B86" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+      <c r="B87" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+      <c r="B88" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+      <c r="B89" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+      <c r="B90" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+      <c r="B91" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+      <c r="B92" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+      <c r="B93" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+      <c r="B94" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+      <c r="B95" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B96" t="s">
+        <v>19</v>
+      </c>
+      <c r="C96" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B97" t="s">
+        <v>27</v>
+      </c>
+      <c r="C97" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B98" t="s">
+        <v>27</v>
+      </c>
+      <c r="C98" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B99" t="s">
+        <v>27</v>
+      </c>
+      <c r="C99" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+      <c r="B100" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+      <c r="B101" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+    </row>
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1"/>
+      <c r="B109" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1"/>
+      <c r="B110" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1"/>
+      <c r="B111" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1"/>
+      <c r="B112" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1"/>
+      <c r="B113" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1"/>
+      <c r="B114" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1"/>
+      <c r="B115" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1"/>
+      <c r="B116" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1"/>
+      <c r="B117" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1"/>
+      <c r="B118" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1"/>
+      <c r="B119" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1"/>
+      <c r="B120" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1"/>
+      <c r="B121" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1"/>
+      <c r="B122" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1"/>
+      <c r="B123" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1"/>
+      <c r="B124" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1"/>
+      <c r="B125" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1"/>
+      <c r="B126" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1"/>
+      <c r="B127" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1"/>
+      <c r="B128" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="D128" s="10"/>
+    </row>
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B129" t="s">
+        <v>27</v>
+      </c>
+      <c r="C129" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B130" t="s">
+        <v>19</v>
+      </c>
+      <c r="C130" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B131" t="s">
+        <v>19</v>
+      </c>
+      <c r="C131" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1"/>
+      <c r="B132" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D132" s="10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1"/>
+      <c r="B133" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D133" s="10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="1"/>
+      <c r="B134" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D134" s="10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B135" t="s">
+        <v>116</v>
+      </c>
+      <c r="C135" t="s">
+        <v>117</v>
+      </c>
+      <c r="D135" s="10" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F137" s="3"/>
+      <c r="G137" s="3"/>
+    </row>
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="1"/>
+      <c r="B142" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C142" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1"/>
+      <c r="B143" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="1"/>
+      <c r="B144" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1"/>
+      <c r="B145" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="1"/>
+      <c r="B146" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C146" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1"/>
+      <c r="B147" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="1"/>
+      <c r="B148" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C148" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="1"/>
+      <c r="B149" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C149" s="10" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="1"/>
+      <c r="B150" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C150" s="10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B151" t="s">
+        <v>27</v>
+      </c>
+      <c r="C151" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="1"/>
+      <c r="B152" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C152" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B153" t="s">
+        <v>116</v>
+      </c>
+      <c r="C153" t="s">
+        <v>127</v>
+      </c>
+      <c r="D153" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B154" t="s">
+        <v>54</v>
+      </c>
+      <c r="C154" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="1"/>
+      <c r="B155" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C155" s="10" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B156" t="s">
+        <v>19</v>
+      </c>
+      <c r="C156" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B157" t="s">
+        <v>27</v>
+      </c>
+      <c r="C157" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B158" t="s">
+        <v>27</v>
+      </c>
+      <c r="C158" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B159" t="s">
+        <v>27</v>
+      </c>
+      <c r="C159" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F161" s="3"/>
+      <c r="G161" s="3"/>
+    </row>
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C162" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B164" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C164" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="1"/>
+      <c r="B165" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C165" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="1"/>
+      <c r="B166" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C166" s="10" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="1"/>
+      <c r="B167" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C167" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="1"/>
+      <c r="B168" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C168" s="10" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="1"/>
+      <c r="B169" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C169" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="1"/>
+      <c r="B170" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C170" s="10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="1"/>
+      <c r="B171" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C171" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="1"/>
+      <c r="B172" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C172" s="10" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="1"/>
+      <c r="B173" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C173" s="10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B174" t="s">
+        <v>27</v>
+      </c>
+      <c r="C174" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="1"/>
+      <c r="B175" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C175" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B176" t="s">
+        <v>116</v>
+      </c>
+      <c r="C176" t="s">
+        <v>127</v>
+      </c>
+      <c r="D176" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B177" t="s">
+        <v>54</v>
+      </c>
+      <c r="C177" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="1"/>
+      <c r="B178" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C178" s="10" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B179" t="s">
+        <v>19</v>
+      </c>
+      <c r="C179" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B180" t="s">
+        <v>27</v>
+      </c>
+      <c r="C180" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B181" t="s">
+        <v>27</v>
+      </c>
+      <c r="C181" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B182" t="s">
+        <v>27</v>
+      </c>
+      <c r="C182" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F184" s="3"/>
+      <c r="G184" s="3"/>
+    </row>
+    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B185" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C185" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B187" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C187" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="1"/>
+      <c r="B188" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C188" s="10" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="1"/>
+      <c r="B189" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C189" s="10" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="1"/>
+      <c r="B190" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C190" s="10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="1"/>
+      <c r="B191" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C191" s="10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="1"/>
+      <c r="B192" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C192" s="10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="1"/>
+      <c r="B193" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C193" s="10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="1"/>
+      <c r="B194" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C194" s="10" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="1"/>
+      <c r="B195" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C195" s="10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="1"/>
+      <c r="B196" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C196" s="10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="1"/>
+      <c r="B197" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C197" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B198" t="s">
+        <v>19</v>
+      </c>
+      <c r="C198" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B199" t="s">
+        <v>27</v>
+      </c>
+      <c r="C199" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B200" t="s">
+        <v>27</v>
+      </c>
+      <c r="C200" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B201" t="s">
+        <v>27</v>
+      </c>
+      <c r="C201" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B202" t="s">
+        <v>27</v>
+      </c>
+      <c r="C202" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="1"/>
+      <c r="B203" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C203" s="10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="1"/>
+      <c r="B204" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C204" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="D204" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="1"/>
+      <c r="B205" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C205" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="D205" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="1"/>
+      <c r="B206" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C206" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="D206" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="1"/>
+      <c r="B207" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C207" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="D207" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="1"/>
+      <c r="B208" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C208" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D208" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="1"/>
+      <c r="B209" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C209" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="D209" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="1"/>
+      <c r="B210" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C210" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="D210" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="1"/>
+      <c r="B211" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C211" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="D211" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="1"/>
+      <c r="B212" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C212" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D212" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="1"/>
+      <c r="B213" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C213" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D213" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="1"/>
+      <c r="B214" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C214" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="D214" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:K215" xr:uid="{2FC82424-48FB-42A9-BBD7-D5F7213BFFEF}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="checklist"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>